--- a/Config/Clues.xlsx
+++ b/Config/Clues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\毕业设计\rescue-endangered\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2C143E-B640-4C32-8C08-0F7719661CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC8130-BBC0-4E8C-BA95-289A80C0F49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17415" yWindow="495" windowWidth="16260" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1104" yWindow="-108" windowWidth="29724" windowHeight="19416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clue" sheetId="4" r:id="rId1"/>
@@ -53,14 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AnimalID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动物 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,6 +73,14 @@
   </si>
   <si>
     <t>大熊猫吃剩下的竹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HabitatID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属栖息地 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,20 +430,20 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -451,14 +451,14 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -473,7 +473,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -481,110 +481,110 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>

--- a/Config/Clues.xlsx
+++ b/Config/Clues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CC8130-BBC0-4E8C-BA95-289A80C0F49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB6905D-44E8-4101-BB23-6BC9568B9CE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="-108" windowWidth="29724" windowHeight="19416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clue" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,26 @@
   </si>
   <si>
     <t>所属栖息地 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2,1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +165,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -430,20 +453,20 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="19.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,9 +479,11 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -471,9 +496,11 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -486,9 +513,11 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -501,8 +530,11 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -515,76 +547,79 @@
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>

--- a/Config/Clues.xlsx
+++ b/Config/Clues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB6905D-44E8-4101-BB23-6BC9568B9CE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABEC311-4BD5-4C30-9E3C-5A00D6680023}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,12 +96,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>-34,19,-18</t>
+  </si>
+  <si>
+    <t>42.3,21.48,-26.3</t>
   </si>
 </sst>
 </file>
@@ -453,7 +451,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -462,7 +460,7 @@
     <col min="2" max="2" width="19.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>

--- a/Config/Clues.xlsx
+++ b/Config/Clues.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\temp\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABEC311-4BD5-4C30-9E3C-5A00D6680023}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8DF76A-0D65-44DD-B284-6CB94F841053}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -61,21 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这里是线索1的描述。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里是线索2的描述。</t>
-  </si>
-  <si>
-    <t>大熊猫的粪便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大熊猫吃剩下的竹子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HabitatID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +81,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大熊猫的生活习性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大熊猫喜欢独居，每只大熊猫有单独的活动区域。除发情期外，常过着独栖生活，昼夜兼行。巢域面积为3.9－6.4km2不定，个体之间巢域有重叠现象，雄体的巢域略大于雌体。雌体大多数时间仅活动于30－40公顷的核域内，雌体间的巢域不重叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大熊猫的饮食习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大熊猫和其他熊一样是杂食性动物，处于从食肉动物到食草动物过渡的阶段。主要食物是竹子，野生的熊猫会吃草、野果、昆虫、竹鼠、羊。
+科学家认为大熊猫具备肉食动物的生理特征却不以肉为主食是因为一个名叫“T1R1”的基因失活了，导致大熊猫无法感觉肉类的鲜味，但它们的消化系统仍然是食肉动物的消化系统，因此只能依靠肠内细菌分解竹叶（但大多未经消化完整排出）。
+因竹叶热量低，熊猫每天要花大量时间进食（平均每只大熊猫每天吃掉9至14公斤（20至30磅）的竹叶，以弥补其饮食中有限的能量含量），同时为免浪费热量它们通常保持静态生活和避免与同类往来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丝猴的生活习性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丝猴的饮食习惯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丝猴群栖高山密林中。主要在树上生活，也在地面找东西吃。以野果、嫩芽、竹笋、苔藓植物为食。主食有树叶、嫩树枝、花、果，也吃树皮和树根，爱吃昆虫、鸟和鸟蛋。</t>
+  </si>
+  <si>
+    <t>夜间和黄昏是亚非野猫的主要活动时间，白天通常潜伏在草丛中，但若天色昏暗或多云，它们也会出来活动。多在洞穴居住并生育。怀孕期 56–69 天，每胎 2–6 崽，多为 3 只。多数小猫在雨季出生，因为雨季有充足的食物。</t>
+  </si>
+  <si>
+    <t>亚非野猫主要捕食小型啮齿类动物，有时也捕食鸟类、爬行类、两栖类和昆虫。捕猎方法是悄悄地接近猎物，到达距离猎物约 1 米时，迅速扑杀猎物。
+受到威胁时，亚非野猫会拱起脊背并会竖起体毛，使自身看上去更大，以震慑对手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚非野猫的生活习性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚非野猫的捕食行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南虎的生活习性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南虎的活动范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要生活在中国南方的森林山地。华南虎虽不喜欢长途泅水，却能游过较狭窄的海峡，所以还出现在像厦门等地的岛屿上。多单独生活，不成群，多在夜间活动，嗅觉发达，行动敏捷，善于游泳，但不善于爬树。与其他的虎的亚种相似。</t>
+  </si>
+  <si>
+    <t>金丝猴具有典型的家庭生活方式，成员之间相互关照，一起觅食、一起玩耍休息。在金丝猴的家中，未成年的小金丝猴有着强烈的好奇心，非常调皮，也倍受父母宠爱，但小公猴成年后就会被爸爸赶出家门，只能自己到野外独立生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与其他的虎的亚种相似，华南虎以猎食约 15 到 200 千克的有蹄类动物为主，包括野猪、苏门羚、水鹿、麂等，有时也会捕食在地面上活动的灵长类，雄性华南虎则会攻击较大型的猎物，如亚洲黑熊等。21 世纪以来由于华南虎的缺失，中国野猪的数量有泛滥的趋势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-34,19,-18</t>
   </si>
   <si>
-    <t>42.3,21.48,-26.3</t>
+    <t>13.7,12.7,-38.3</t>
+  </si>
+  <si>
+    <t>-32.3,18.3,35</t>
+  </si>
+  <si>
+    <t>35.2,19,19.3</t>
   </si>
 </sst>
 </file>
@@ -151,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,6 +222,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,18 +512,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319EAB0-E15C-48AE-9953-B84954D6139C}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="14.875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
@@ -472,13 +536,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -491,11 +555,11 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -506,120 +570,190 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1011</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1012</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Config/Clues.xlsx
+++ b/Config/Clues.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\temp\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8DF76A-0D65-44DD-B284-6CB94F841053}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1604B877-05C4-47A3-A8F6-9F23D8486304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -155,6 +155,22 @@
   </si>
   <si>
     <t>35.2,19,19.3</t>
+  </si>
+  <si>
+    <t>AnimalID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属动物 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -512,23 +528,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319EAB0-E15C-48AE-9953-B84954D6139C}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="3" max="3" width="31.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,16 +554,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -553,16 +577,22 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -570,190 +600,252 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="str">
+        <f>CONCATENATE("tex_clue_",B4,".png")</f>
+        <v>tex_clue_大熊猫的生活习性.png</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1002</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="str">
+        <f t="shared" ref="C5:C11" si="0">CONCATENATE("tex_clue_",B5,".png")</f>
+        <v>tex_clue_大熊猫的饮食习惯.png</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1011</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tex_clue_华南虎的活动范围.png</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1012</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tex_clue_华南虎的生活习性.png</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1002</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2001</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tex_clue_金丝猴的生活习性.png</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2002</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tex_clue_金丝猴的饮食习惯.png</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2001</v>
+      </c>
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2011</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tex_clue_亚非野猫的生活习性.png</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2002</v>
+      </c>
+      <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2012</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tex_clue_亚非野猫的捕食行为.png</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2002</v>
+      </c>
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="3"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="3"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="3"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="3"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="3"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E23" s="3"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E24" s="3"/>
+      <c r="F24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Config/Clues.xlsx
+++ b/Config/Clues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1604B877-05C4-47A3-A8F6-9F23D8486304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4302F518-CE95-432A-8729-43030D879E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -78,24 +78,6 @@
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大熊猫的生活习性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大熊猫喜欢独居，每只大熊猫有单独的活动区域。除发情期外，常过着独栖生活，昼夜兼行。巢域面积为3.9－6.4km2不定，个体之间巢域有重叠现象，雄体的巢域略大于雌体。雌体大多数时间仅活动于30－40公顷的核域内，雌体间的巢域不重叠。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大熊猫的饮食习惯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大熊猫和其他熊一样是杂食性动物，处于从食肉动物到食草动物过渡的阶段。主要食物是竹子，野生的熊猫会吃草、野果、昆虫、竹鼠、羊。
-科学家认为大熊猫具备肉食动物的生理特征却不以肉为主食是因为一个名叫“T1R1”的基因失活了，导致大熊猫无法感觉肉类的鲜味，但它们的消化系统仍然是食肉动物的消化系统，因此只能依靠肠内细菌分解竹叶（但大多未经消化完整排出）。
-因竹叶热量低，熊猫每天要花大量时间进食（平均每只大熊猫每天吃掉9至14公斤（20至30磅）的竹叶，以弥补其饮食中有限的能量含量），同时为免浪费热量它们通常保持静态生活和避免与同类往来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,25 +108,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华南虎的生活习性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华南虎的活动范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要生活在中国南方的森林山地。华南虎虽不喜欢长途泅水，却能游过较狭窄的海峡，所以还出现在像厦门等地的岛屿上。多单独生活，不成群，多在夜间活动，嗅觉发达，行动敏捷，善于游泳，但不善于爬树。与其他的虎的亚种相似。</t>
-  </si>
-  <si>
     <t>金丝猴具有典型的家庭生活方式，成员之间相互关照，一起觅食、一起玩耍休息。在金丝猴的家中，未成年的小金丝猴有着强烈的好奇心，非常调皮，也倍受父母宠爱，但小公猴成年后就会被爸爸赶出家门，只能自己到野外独立生活。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与其他的虎的亚种相似，华南虎以猎食约 15 到 200 千克的有蹄类动物为主，包括野猪、苏门羚、水鹿、麂等，有时也会捕食在地面上活动的灵长类，雄性华南虎则会攻击较大型的猎物，如亚洲黑熊等。21 世纪以来由于华南虎的缺失，中国野猪的数量有泛滥的趋势。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-34,19,-18</t>
   </si>
   <si>
@@ -170,6 +137,66 @@
   </si>
   <si>
     <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大熊猫的“拇指”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IgnoreResourceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant-panda_thumb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大熊猫的绿色粪便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　大熊猫和其他熊一样是杂食性动物，处于从食肉动物到食草动物过渡的阶段。主要食物是竹子。
+　　科学家认为大熊猫具备肉食动物的生理特征却不以肉为主食是因为一个名叫“T1R1”的基因失活了，导致大熊猫无法感觉肉类的鲜味。然而它们的消化系统仍然是食肉动物的消化系统，因此只能依靠肠内细菌分解竹叶，这就导致大多数竹子未经消化完整就被排出，所以大熊猫的粪便通常都是绿色的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　大熊猫的臼齿发达，爪子除了五趾外还有一个“拇指”。这个“拇指”其实是一节腕骨特化形成，学名叫做“桡侧籽骨”，主要起握住竹子的作用。
+　　因竹叶热量低，熊猫每天要花大量时间进食，平均每只大熊猫每天吃掉9至14公斤的竹叶，以弥补其饮食中有限的能量含量，同时为了避免浪费热量，它们通常保持静态生活和避免与同类往来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant-panda_stool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　华南虎主要生活在中国南方的森林山地。华南虎虽不喜欢长途泅水，但是可以游过较狭窄的海峡，所以还有出现在像厦门等地的岛屿上。
+　　华南虎大多单独生活，不成群，常在夜间活动，嗅觉发达，行动敏捷，善于游泳，但不善于爬树。与其他的虎的亚种相似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南虎的捕食行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>south-chinese-tiger_predatory-behavior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南虎的分布及习性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>south-chinese-tiger_distribution-and-habits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　与其他的虎的亚种相似，华南虎以猎食约15到200千克的有蹄类动物为主，包括野猪、苏门羚、水鹿、麂等，有时也会捕食在地面上活动的灵长类。
+　　雄性华南虎还会攻击较大型的猎物，如亚洲黑熊等。21世纪以来，由于华南虎的缺失，中国野猪的数量呈现出了泛滥的趋势。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,25 +555,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319EAB0-E15C-48AE-9953-B84954D6139C}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="29.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,22 +582,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -579,20 +610,23 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -600,252 +634,267 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="str">
-        <f>CONCATENATE("tex_clue_",B4,".png")</f>
-        <v>tex_clue_大熊猫的生活习性.png</v>
-      </c>
-      <c r="D4" s="3">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>CONCATENATE("tex_clue_",C4,".png")</f>
+        <v>tex_clue_giant-panda_thumb.png</v>
+      </c>
+      <c r="E4" s="3">
         <v>1001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1002</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <f t="shared" ref="C5:C11" si="0">CONCATENATE("tex_clue_",B5,".png")</f>
-        <v>tex_clue_大熊猫的饮食习惯.png</v>
-      </c>
-      <c r="D5" s="3">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" ref="D5:D11" si="0">CONCATENATE("tex_clue_",C5,".png")</f>
+        <v>tex_clue_giant-panda_stool.png</v>
+      </c>
+      <c r="E5" s="3">
         <v>1001</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="G5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1011</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="str">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_clue_华南虎的活动范围.png</v>
-      </c>
-      <c r="D6" s="3">
+        <v>tex_clue_south-chinese-tiger_distribution-and-habits.png</v>
+      </c>
+      <c r="E6" s="3">
         <v>1002</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1012</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>tex_clue_south-chinese-tiger_predatory-behavior.png</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_clue_华南虎的生活习性.png</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1002</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2001</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_clue_金丝猴的生活习性.png</v>
-      </c>
-      <c r="D8" s="3">
+        <v>tex_clue_.png</v>
+      </c>
+      <c r="E8" s="3">
         <v>2001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2002</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="3" t="str">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_clue_金丝猴的饮食习惯.png</v>
-      </c>
-      <c r="D9" s="3">
+        <v>tex_clue_.png</v>
+      </c>
+      <c r="E9" s="3">
         <v>2001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2011</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="3" t="str">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_clue_亚非野猫的生活习性.png</v>
-      </c>
-      <c r="D10" s="3">
+        <v>tex_clue_.png</v>
+      </c>
+      <c r="E10" s="3">
         <v>2002</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="G10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2012</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_clue_亚非野猫的捕食行为.png</v>
-      </c>
-      <c r="D11" s="3">
+        <v>tex_clue_.png</v>
+      </c>
+      <c r="E11" s="3">
         <v>2002</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E12" s="3"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E13" s="3"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E14" s="3"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E15" s="3"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E16" s="3"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" s="3"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18" s="3"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19" s="3"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="3"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E21" s="3"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="3"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="3"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="3"/>
-      <c r="F24" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="3"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="3"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="3"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="3"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="3"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F18" s="3"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="3"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="3"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="3"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="3"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="3"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Config/Clues.xlsx
+++ b/Config/Clues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4302F518-CE95-432A-8729-43030D879E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF2DA20-4E81-4EF9-9D1E-811733AFB588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -85,30 +85,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金丝猴的饮食习惯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金丝猴群栖高山密林中。主要在树上生活，也在地面找东西吃。以野果、嫩芽、竹笋、苔藓植物为食。主食有树叶、嫩树枝、花、果，也吃树皮和树根，爱吃昆虫、鸟和鸟蛋。</t>
-  </si>
-  <si>
-    <t>夜间和黄昏是亚非野猫的主要活动时间，白天通常潜伏在草丛中，但若天色昏暗或多云，它们也会出来活动。多在洞穴居住并生育。怀孕期 56–69 天，每胎 2–6 崽，多为 3 只。多数小猫在雨季出生，因为雨季有充足的食物。</t>
-  </si>
-  <si>
-    <t>亚非野猫主要捕食小型啮齿类动物，有时也捕食鸟类、爬行类、两栖类和昆虫。捕猎方法是悄悄地接近猎物，到达距离猎物约 1 米时，迅速扑杀猎物。
-受到威胁时，亚非野猫会拱起脊背并会竖起体毛，使自身看上去更大，以震慑对手。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚非野猫的生活习性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>亚非野猫的捕食行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金丝猴具有典型的家庭生活方式，成员之间相互关照，一起觅食、一起玩耍休息。在金丝猴的家中，未成年的小金丝猴有着强烈的好奇心，非常调皮，也倍受父母宠爱，但小公猴成年后就会被爸爸赶出家门，只能自己到野外独立生活。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,6 +175,45 @@
     <t>　　与其他的虎的亚种相似，华南虎以猎食约15到200千克的有蹄类动物为主，包括野猪、苏门羚、水鹿、麂等，有时也会捕食在地面上活动的灵长类。
 　　雄性华南虎还会攻击较大型的猎物，如亚洲黑熊等。21世纪以来，由于华南虎的缺失，中国野猪的数量呈现出了泛滥的趋势。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿孔雀的繁殖方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green-peafowl_reproduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　绿孔雀的繁殖期为3~6月。2月中下旬即出现求偶行为。此时雄鸟羽色特别艳丽，常追逐于雌鸟周围，把鲜艳的尾上覆羽尾屏展开如扇状，并不断抖动，使其相互摩擦碰撞而发出“沙沙沙”的声响。雄鸟间还常为争雌而发生殴斗。
+　　通常营巢于灌木和草丛中地上。巢较简陋，多利用地上天然凹坑或亲鸟自己挖出一浅坑，内垫以杂草、枯枝、落叶和羽毛即成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　亚非野猫通常单独在夜间或晨昏活动，白天隐匿于树穴或灌丛中。主要吃小型啮齿动物、鸟类、蜥蜴和蛙等，也食鱼类和昆虫等。行动敏捷，善于攀爬，潜行隐蔽接近猎物，突然捕食。领域性也很明显，通常每个个体大约占据0.5平方公里的领地，但当领地内食物不足或者寻找配偶时，也常到领地以外游荡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asian-wild-cat_predatory-behavior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golden-monkey_life-habits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　金丝猴具有典型的家庭生活方式，成员之间相互关照，一起觅食、一起玩耍休息。在金丝猴的家中，未成年的小金丝猴有着强烈的好奇心，非常调皮，也倍受父母宠爱，但小公猴成年后就会被爸爸赶出家门，只能自己到野外独立生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.62,10.29,-23.238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.18,4.84,40.05</t>
+  </si>
+  <si>
+    <t>-39.7,3.163,-23</t>
   </si>
 </sst>
 </file>
@@ -555,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319EAB0-E15C-48AE-9953-B84954D6139C}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,13 +598,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -634,13 +650,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -654,13 +670,13 @@
     </row>
     <row r="4" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>CONCATENATE("tex_clue_",C4,".png")</f>
@@ -673,24 +689,24 @@
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f t="shared" ref="D5:D11" si="0">CONCATENATE("tex_clue_",C5,".png")</f>
+        <f t="shared" ref="D5:D10" si="0">CONCATENATE("tex_clue_",C5,".png")</f>
         <v>tex_clue_giant-panda_stool.png</v>
       </c>
       <c r="E5" s="3">
@@ -700,21 +716,21 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -727,21 +743,21 @@
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -754,22 +770,25 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_clue_.png</v>
+        <v>tex_clue_golden-monkey_life-habits.png</v>
       </c>
       <c r="E8" s="3">
         <v>2001</v>
@@ -778,71 +797,69 @@
         <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>2002</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_clue_.png</v>
+        <v>tex_clue_asian-wild-cat_predatory-behavior.png</v>
       </c>
       <c r="E9" s="3">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>2011</v>
+        <v>2031</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>tex_clue_.png</v>
+        <v>tex_clue_green-peafowl_reproduction.png</v>
       </c>
       <c r="E10" s="3">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>tex_clue_.png</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2002</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F12" s="3"/>
@@ -887,14 +904,6 @@
     <row r="22" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F22" s="3"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="3"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="3"/>
-      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
